--- a/TOMI_INDEX_1.xlsx
+++ b/TOMI_INDEX_1.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40,784984506465435</t>
+          <t>40,784984295395134</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>40,784984506465435</t>
+          <t>40,784984295395134</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40,784984506465435</t>
+          <t>40,784984295395134</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>42,362996843374845</t>
+          <t>42,36299652667799</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>42,362996843374845</t>
+          <t>42,36299652667799</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>42,362996843374845</t>
+          <t>42,36299652667799</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>37,79874103909049</t>
+          <t>37,798740836991215</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>37,79874103909049</t>
+          <t>37,798740836991215</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>37,79874103909049</t>
+          <t>37,798740836991215</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>36,89465415090842</t>
+          <t>36,89465397050424</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>36,89465415090842</t>
+          <t>36,89465397050424</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>36,89465415090842</t>
+          <t>36,89465397050424</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>40,37006360662633</t>
+          <t>40,37006338885715</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>40,37006360662633</t>
+          <t>40,37006338885715</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>40,37006360662633</t>
+          <t>40,37006338885715</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39,96258314824729</t>
+          <t>39,96258291154368</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>39,96258314824729</t>
+          <t>39,96258291154368</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>39,96258314824729</t>
+          <t>39,96258291154368</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>43,01285522908972</t>
+          <t>43,01285500431072</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>43,01285522908972</t>
+          <t>43,01285500431072</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>43,01285522908972</t>
+          <t>43,01285500431072</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>40,86582822207981</t>
+          <t>40,86582802314672</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>40,86582822207981</t>
+          <t>40,86582802314672</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>40,86582822207981</t>
+          <t>40,86582802314672</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>47,255134003747685</t>
+          <t>47,25513388335139</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>47,255134003747685</t>
+          <t>47,25513388335139</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>47,255134003747685</t>
+          <t>47,25513388335139</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>46,717787744530824</t>
+          <t>46,71778765587828</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>46,717787744530824</t>
+          <t>46,71778765587828</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>46,717787744530824</t>
+          <t>46,71778765587828</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>46,727299595521345</t>
+          <t>46,72729947683149</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>46,727299595521345</t>
+          <t>46,72729947683149</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>46,727299595521345</t>
+          <t>46,72729947683149</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>46,95744749465848</t>
+          <t>46,95744740840075</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>46,95744749465848</t>
+          <t>46,95744740840075</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>46,95744749465848</t>
+          <t>46,95744740840075</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>44,622394345134694</t>
+          <t>44,62239419178263</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>44,622394345134694</t>
+          <t>44,62239419178263</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>44,622394345134694</t>
+          <t>44,62239419178263</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>45,89080895938912</t>
+          <t>45,89080885184046</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>45,89080895938912</t>
+          <t>45,89080885184046</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>45,89080895938912</t>
+          <t>45,89080885184046</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>47,52355260668594</t>
+          <t>47,523552545344046</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>47,52355260668594</t>
+          <t>47,523552545344046</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>47,52355260668594</t>
+          <t>47,523552545344046</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>42,927935027590024</t>
+          <t>42,92793485355628</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>42,927935027590024</t>
+          <t>42,92793485355628</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>42,927935027590024</t>
+          <t>42,92793485355628</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>44,199159070929</t>
+          <t>44,19915890804134</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>44,199159070929</t>
+          <t>44,19915890804134</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>44,199159070929</t>
+          <t>44,19915890804134</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>46,97059888871462</t>
+          <t>46,97059819355405</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>46,97059888871462</t>
+          <t>46,97059819355405</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>46,97059888871462</t>
+          <t>46,97059819355405</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>44,820182430231455</t>
+          <t>44,8201818099277</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>44,820182430231455</t>
+          <t>44,8201818099277</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>44,820182430231455</t>
+          <t>44,8201818099277</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>38,658834255536476</t>
+          <t>38,658833840498005</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>38,658834255536476</t>
+          <t>38,658833840498005</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>38,658834255536476</t>
+          <t>38,658833840498005</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>37,529538372587695</t>
+          <t>37,52953795422161</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>37,529538372587695</t>
+          <t>37,52953795422161</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>37,529538372587695</t>
+          <t>37,52953795422161</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>36,906611804331874</t>
+          <t>36,90661142852366</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>36,906611804331874</t>
+          <t>36,90661142852366</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>36,906611804331874</t>
+          <t>36,90661142852366</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>41,230157266736455</t>
+          <t>41,230156794857294</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>41,230157266736455</t>
+          <t>41,230156794857294</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>41,230157266736455</t>
+          <t>41,230156794857294</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>41,41807316710879</t>
+          <t>41,41807273947575</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>41,41807316710879</t>
+          <t>41,41807273947575</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>41,41807316710879</t>
+          <t>41,41807273947575</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>44,679914123849244</t>
+          <t>44,67991350431123</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>44,679914123849244</t>
+          <t>44,67991350431123</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>44,679914123849244</t>
+          <t>44,67991350431123</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>44,83747371993127</t>
+          <t>44,83747307864934</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>44,83747371993127</t>
+          <t>44,83747307864934</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>44,83747371993127</t>
+          <t>44,83747307864934</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>52,082849777466606</t>
+          <t>52,082849082004714</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>52,082849777466606</t>
+          <t>52,082849082004714</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>52,082849777466606</t>
+          <t>52,082849082004714</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>51,63189950216673</t>
+          <t>51,63189878857793</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>51,63189950216673</t>
+          <t>51,63189878857793</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>51,63189950216673</t>
+          <t>51,63189878857793</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>69,51342084729882</t>
+          <t>69,51341997587724</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>69,51342084729882</t>
+          <t>69,51341997587724</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>69,51342084729882</t>
+          <t>69,51341997587724</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>40,246691893266416</t>
+          <t>40,246691518140096</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>40,246691893266416</t>
+          <t>40,246691518140096</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>40,246691893266416</t>
+          <t>40,246691518140096</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>47,35627019708363</t>
+          <t>47,35627000502791</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>47,35627019708363</t>
+          <t>47,35627000502791</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>47,35627019708363</t>
+          <t>47,35627000502791</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>41,9400931361738</t>
+          <t>41,94009291095426</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>41,9400931361738</t>
+          <t>41,94009291095426</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>41,9400931361738</t>
+          <t>41,94009291095426</t>
         </is>
       </c>
     </row>
